--- a/src/data/dataFile/outxlsx/family.xlsx
+++ b/src/data/dataFile/outxlsx/family.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="21">
   <si>
     <t>English</t>
   </si>
@@ -23,27 +23,36 @@
     <t>Level</t>
   </si>
   <si>
+    <t>PathImage</t>
+  </si>
+  <si>
     <t>great-grandparent</t>
   </si>
   <si>
     <t>ông bà cố</t>
   </si>
   <si>
+    <t>hard</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>grandmother</t>
+  </si>
+  <si>
+    <t>bà </t>
+  </si>
+  <si>
+    <t>ancestor</t>
+  </si>
+  <si>
+    <t>tổ tiên</t>
+  </si>
+  <si>
     <t>nothing</t>
   </si>
   <si>
-    <t>grandmother</t>
-  </si>
-  <si>
-    <t>bà </t>
-  </si>
-  <si>
-    <t>ancestor</t>
-  </si>
-  <si>
-    <t>tổ tiên</t>
-  </si>
-  <si>
     <t>grandfather</t>
   </si>
   <si>
@@ -53,7 +62,7 @@
     <t>family</t>
   </si>
   <si>
-    <t>gia đình</t>
+    <t>gia đình fsjg ofjdp sdpjfpjdsafpsap fsfosdfpsd fpspfospofkspfkposdkfpjgpjsg s jgposjfpsjdfpafs o sf sf sdf s fspjfpu09wf09asjf sdfw fs f jsa0fjw0 fjsdf jawf sa0 fjwejf 0sf afp jasd;fja; fa</t>
   </si>
   <si>
     <t>brother</t>
@@ -126,82 +135,106 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" t="s">
-        <v>5</v>
+      <c r="D3" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>5</v>
+        <v>12</v>
+      </c>
+      <c r="D4" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C5" t="s">
-        <v>5</v>
+        <v>12</v>
+      </c>
+      <c r="D5" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C6" t="s">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="D6" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C7" t="s">
-        <v>5</v>
+        <v>12</v>
+      </c>
+      <c r="D7" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B8" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C8" t="s">
-        <v>5</v>
+        <v>12</v>
+      </c>
+      <c r="D8" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
